--- a/data/cf_specimen_lithologies.xlsx
+++ b/data/cf_specimen_lithologies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamespierce/Desktop/Git_hub/Cut_Face/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4EDBF2F3-32F6-EC46-B41E-5239756B30FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A821069D-9443-8744-8D2D-17619A1D44C6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16400" xr2:uid="{4EF45C58-FB85-3343-AD6C-A2D7EF7D4756}"/>
+    <workbookView xWindow="18620" yWindow="500" windowWidth="11180" windowHeight="16080" xr2:uid="{4EF45C58-FB85-3343-AD6C-A2D7EF7D4756}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,21 +34,123 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="39">
   <si>
     <t>Specimen</t>
   </si>
   <si>
-    <t>primary_lith</t>
-  </si>
-  <si>
     <t>percent_primary</t>
   </si>
   <si>
-    <t>secondary_lith</t>
-  </si>
-  <si>
     <t>notes</t>
+  </si>
+  <si>
+    <t>rip_ups</t>
+  </si>
+  <si>
+    <t>primary_grain_size</t>
+  </si>
+  <si>
+    <t>secondary_grain_size</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>0-clay</t>
+  </si>
+  <si>
+    <t>1-silt</t>
+  </si>
+  <si>
+    <t>2-vfs</t>
+  </si>
+  <si>
+    <t>3-fs</t>
+  </si>
+  <si>
+    <t>4-ms</t>
+  </si>
+  <si>
+    <t>5-cs</t>
+  </si>
+  <si>
+    <t>6-vcs</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>one visible rip up</t>
+  </si>
+  <si>
+    <t>upper medium ss with slt rip ups</t>
+  </si>
+  <si>
+    <t>upper medium ss</t>
+  </si>
+  <si>
+    <t>f to vf ss</t>
+  </si>
+  <si>
+    <t>a few fs horizons</t>
+  </si>
+  <si>
+    <t>vfs</t>
+  </si>
+  <si>
+    <t>lms, one visible slt rip up</t>
+  </si>
+  <si>
+    <t>lmss</t>
+  </si>
+  <si>
+    <t>umss, one thin slt layer</t>
+  </si>
+  <si>
+    <t>no visible rip ups</t>
+  </si>
+  <si>
+    <t>at transition from slt to ss</t>
+  </si>
+  <si>
+    <t>beautiful specimen</t>
+  </si>
+  <si>
+    <t>small cracks (?) in the finer lithology is filled in with coarser</t>
+  </si>
+  <si>
+    <t>poorly sorted</t>
+  </si>
+  <si>
+    <t>lmss secondary</t>
+  </si>
+  <si>
+    <t>one large piece of slt, doesn’t look like a rip up</t>
+  </si>
+  <si>
+    <t>very thin slt horizons</t>
+  </si>
+  <si>
+    <t>very small rip ups</t>
+  </si>
+  <si>
+    <t>very finely laminated mud interlayers</t>
+  </si>
+  <si>
+    <t>very finely laminated slt/ss</t>
+  </si>
+  <si>
+    <t>arkosic umss</t>
+  </si>
+  <si>
+    <t>poorly laminated</t>
+  </si>
+  <si>
+    <t>finely laminated</t>
   </si>
 </sst>
 </file>
@@ -400,109 +502,138 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D17AF33-1FC7-7C41-8941-A5B480637DB5}">
-  <dimension ref="A1:E187"/>
+  <dimension ref="A1:G187"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B185" sqref="B185"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="B117" sqref="B117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.1640625" customWidth="1"/>
-    <col min="2" max="2" width="27.5" customWidth="1"/>
-    <col min="3" max="3" width="25.5" customWidth="1"/>
-    <col min="4" max="4" width="32.1640625" customWidth="1"/>
-    <col min="5" max="5" width="68.83203125" customWidth="1"/>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" customWidth="1"/>
+    <col min="6" max="6" width="62.33203125" customWidth="1"/>
+    <col min="7" max="7" width="50.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -987,379 +1118,1168 @@
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>117</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B118">
+        <v>1</v>
+      </c>
+      <c r="C118">
+        <v>75</v>
+      </c>
+      <c r="D118">
+        <v>2</v>
+      </c>
+      <c r="E118" t="s">
+        <v>15</v>
+      </c>
+      <c r="F118" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>119</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B120">
+        <v>1</v>
+      </c>
+      <c r="C120">
+        <v>95</v>
+      </c>
+      <c r="D120">
+        <v>2</v>
+      </c>
+      <c r="E120" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>120</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B121">
+        <v>2</v>
+      </c>
+      <c r="C121">
+        <v>75</v>
+      </c>
+      <c r="D121">
+        <v>1</v>
+      </c>
+      <c r="E121" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>121</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B122">
+        <v>1</v>
+      </c>
+      <c r="C122">
+        <v>95</v>
+      </c>
+      <c r="D122">
+        <v>2</v>
+      </c>
+      <c r="E122" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>122</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B123">
+        <v>1</v>
+      </c>
+      <c r="C123">
+        <v>90</v>
+      </c>
+      <c r="D123">
+        <v>3</v>
+      </c>
+      <c r="E123" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>123</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B124">
+        <v>1</v>
+      </c>
+      <c r="C124">
+        <v>70</v>
+      </c>
+      <c r="D124">
+        <v>2</v>
+      </c>
+      <c r="E124" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>125</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B126">
+        <v>2</v>
+      </c>
+      <c r="C126">
+        <v>100</v>
+      </c>
+      <c r="E126" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>126</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B127">
+        <v>3</v>
+      </c>
+      <c r="C127">
+        <v>85</v>
+      </c>
+      <c r="D127">
+        <v>2</v>
+      </c>
+      <c r="E127" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>127</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B128">
+        <v>1</v>
+      </c>
+      <c r="C128">
+        <v>80</v>
+      </c>
+      <c r="D128">
+        <v>0</v>
+      </c>
+      <c r="E128" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>128</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B129">
+        <v>2</v>
+      </c>
+      <c r="C129">
+        <v>100</v>
+      </c>
+      <c r="E129" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>129</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B130">
+        <v>2</v>
+      </c>
+      <c r="C130">
+        <v>95</v>
+      </c>
+      <c r="D130">
+        <v>3</v>
+      </c>
+      <c r="E130" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>130</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B131">
+        <v>0</v>
+      </c>
+      <c r="C131">
+        <v>90</v>
+      </c>
+      <c r="D131">
+        <v>3</v>
+      </c>
+      <c r="E131" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>131</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B132">
+        <v>1</v>
+      </c>
+      <c r="C132">
+        <v>90</v>
+      </c>
+      <c r="D132">
+        <v>3</v>
+      </c>
+      <c r="E132" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>132</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B133">
+        <v>2</v>
+      </c>
+      <c r="C133">
+        <v>90</v>
+      </c>
+      <c r="D133">
+        <v>1</v>
+      </c>
+      <c r="E133" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>133</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B134">
+        <v>2</v>
+      </c>
+      <c r="C134">
+        <v>100</v>
+      </c>
+      <c r="E134" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>134</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B135">
+        <v>2</v>
+      </c>
+      <c r="C135">
+        <v>90</v>
+      </c>
+      <c r="D135">
+        <v>1</v>
+      </c>
+      <c r="E135" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>135</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B136">
+        <v>2</v>
+      </c>
+      <c r="C136">
+        <v>90</v>
+      </c>
+      <c r="D136">
+        <v>1</v>
+      </c>
+      <c r="E136" t="s">
+        <v>15</v>
+      </c>
+      <c r="F136" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>136</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B137">
+        <v>3</v>
+      </c>
+      <c r="C137">
+        <v>90</v>
+      </c>
+      <c r="D137">
+        <v>1</v>
+      </c>
+      <c r="E137" t="s">
+        <v>15</v>
+      </c>
+      <c r="F137" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>137</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B138">
+        <v>0</v>
+      </c>
+      <c r="C138">
+        <v>75</v>
+      </c>
+      <c r="D138">
+        <v>1</v>
+      </c>
+      <c r="E138" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>138</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B139">
+        <v>2</v>
+      </c>
+      <c r="C139">
+        <v>80</v>
+      </c>
+      <c r="D139">
+        <v>1</v>
+      </c>
+      <c r="E139" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>139</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B140">
+        <v>1</v>
+      </c>
+      <c r="C140">
+        <v>85</v>
+      </c>
+      <c r="D140">
+        <v>3</v>
+      </c>
+      <c r="E140" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>140</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B141">
+        <v>1</v>
+      </c>
+      <c r="C141">
+        <v>65</v>
+      </c>
+      <c r="D141">
+        <v>3</v>
+      </c>
+      <c r="E141" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>141</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B142">
+        <v>1</v>
+      </c>
+      <c r="C142">
+        <v>60</v>
+      </c>
+      <c r="D142">
+        <v>2</v>
+      </c>
+      <c r="E142" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>142</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B143">
+        <v>1</v>
+      </c>
+      <c r="C143">
+        <v>65</v>
+      </c>
+      <c r="D143">
+        <v>3</v>
+      </c>
+      <c r="E143" t="s">
+        <v>15</v>
+      </c>
+      <c r="F143" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>143</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B144">
+        <v>3</v>
+      </c>
+      <c r="C144">
+        <v>95</v>
+      </c>
+      <c r="D144">
+        <v>1</v>
+      </c>
+      <c r="E144" t="s">
+        <v>14</v>
+      </c>
+      <c r="F144" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>144</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B145">
+        <v>1</v>
+      </c>
+      <c r="C145">
+        <v>90</v>
+      </c>
+      <c r="D145">
+        <v>2</v>
+      </c>
+      <c r="E145" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>145</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B146">
+        <v>3</v>
+      </c>
+      <c r="C146">
+        <v>100</v>
+      </c>
+      <c r="E146" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>146</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B147">
+        <v>1</v>
+      </c>
+      <c r="C147">
+        <v>90</v>
+      </c>
+      <c r="D147">
+        <v>2</v>
+      </c>
+      <c r="E147" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>147</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B148">
+        <v>3</v>
+      </c>
+      <c r="C148">
+        <v>100</v>
+      </c>
+      <c r="E148" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>148</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B149">
+        <v>3</v>
+      </c>
+      <c r="C149">
+        <v>65</v>
+      </c>
+      <c r="D149">
+        <v>1</v>
+      </c>
+      <c r="E149" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>149</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B150">
+        <v>1</v>
+      </c>
+      <c r="C150">
+        <v>60</v>
+      </c>
+      <c r="D150">
+        <v>2</v>
+      </c>
+      <c r="E150" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>150</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B151">
+        <v>1</v>
+      </c>
+      <c r="C151">
+        <v>100</v>
+      </c>
+      <c r="E151" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>152</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B153">
+        <v>2</v>
+      </c>
+      <c r="C153">
+        <v>65</v>
+      </c>
+      <c r="D153">
+        <v>0</v>
+      </c>
+      <c r="E153" t="s">
+        <v>15</v>
+      </c>
+      <c r="F153" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>153</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B154">
+        <v>1</v>
+      </c>
+      <c r="C154">
+        <v>70</v>
+      </c>
+      <c r="D154">
+        <v>2</v>
+      </c>
+      <c r="E154" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>154</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B155">
+        <v>2</v>
+      </c>
+      <c r="C155">
+        <v>70</v>
+      </c>
+      <c r="D155">
+        <v>1</v>
+      </c>
+      <c r="E155" t="s">
+        <v>14</v>
+      </c>
+      <c r="F155" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>155</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B156">
+        <v>1</v>
+      </c>
+      <c r="C156">
+        <v>95</v>
+      </c>
+      <c r="D156">
+        <v>2</v>
+      </c>
+      <c r="E156" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>156</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B157">
+        <v>3</v>
+      </c>
+      <c r="C157">
+        <v>65</v>
+      </c>
+      <c r="D157">
+        <v>1</v>
+      </c>
+      <c r="E157" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>157</v>
       </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B158">
+        <v>1</v>
+      </c>
+      <c r="C158">
+        <v>90</v>
+      </c>
+      <c r="D158">
+        <v>2</v>
+      </c>
+      <c r="E158" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>158</v>
       </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B159">
+        <v>1</v>
+      </c>
+      <c r="C159">
+        <v>80</v>
+      </c>
+      <c r="D159">
+        <v>2</v>
+      </c>
+      <c r="E159" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>159</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B160">
+        <v>3</v>
+      </c>
+      <c r="C160">
+        <v>80</v>
+      </c>
+      <c r="D160">
+        <v>1</v>
+      </c>
+      <c r="E160" t="s">
+        <v>15</v>
+      </c>
+      <c r="F160" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>160</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B161">
+        <v>3</v>
+      </c>
+      <c r="C161">
+        <v>85</v>
+      </c>
+      <c r="D161">
+        <v>1</v>
+      </c>
+      <c r="E161" t="s">
+        <v>15</v>
+      </c>
+      <c r="F161" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>161</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B162">
+        <v>1</v>
+      </c>
+      <c r="C162">
+        <v>90</v>
+      </c>
+      <c r="D162">
+        <v>4</v>
+      </c>
+      <c r="E162" t="s">
+        <v>15</v>
+      </c>
+      <c r="F162" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>162</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B163">
+        <v>4</v>
+      </c>
+      <c r="C163">
+        <v>100</v>
+      </c>
+      <c r="E163" t="s">
+        <v>15</v>
+      </c>
+      <c r="F163" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>163</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B164">
+        <v>1</v>
+      </c>
+      <c r="C164">
+        <v>60</v>
+      </c>
+      <c r="D164">
+        <v>3</v>
+      </c>
+      <c r="E164" t="s">
+        <v>14</v>
+      </c>
+      <c r="F164" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>164</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B165">
+        <v>2</v>
+      </c>
+      <c r="C165">
+        <v>100</v>
+      </c>
+      <c r="E165" t="s">
+        <v>15</v>
+      </c>
+      <c r="F165" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>165</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B166">
+        <v>2</v>
+      </c>
+      <c r="C166">
+        <v>90</v>
+      </c>
+      <c r="D166">
+        <v>1</v>
+      </c>
+      <c r="E166" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>166</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B167">
+        <v>2</v>
+      </c>
+      <c r="C167">
+        <v>80</v>
+      </c>
+      <c r="D167">
+        <v>1</v>
+      </c>
+      <c r="E167" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>167</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B168">
+        <v>2</v>
+      </c>
+      <c r="C168">
+        <v>65</v>
+      </c>
+      <c r="D168">
+        <v>1</v>
+      </c>
+      <c r="E168" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>169</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B170">
+        <v>3</v>
+      </c>
+      <c r="C170">
+        <v>90</v>
+      </c>
+      <c r="D170">
+        <v>1</v>
+      </c>
+      <c r="E170" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>170</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B171">
+        <v>1</v>
+      </c>
+      <c r="C171">
+        <v>85</v>
+      </c>
+      <c r="D171">
+        <v>3</v>
+      </c>
+      <c r="E171" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>172</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B173">
+        <v>3</v>
+      </c>
+      <c r="C173">
+        <v>75</v>
+      </c>
+      <c r="D173">
+        <v>1</v>
+      </c>
+      <c r="E173" t="s">
+        <v>15</v>
+      </c>
+      <c r="F173" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>174</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B175">
+        <v>3</v>
+      </c>
+      <c r="C175">
+        <v>100</v>
+      </c>
+      <c r="E175" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>175</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B176">
+        <v>1</v>
+      </c>
+      <c r="C176">
+        <v>55</v>
+      </c>
+      <c r="D176">
+        <v>3</v>
+      </c>
+      <c r="E176" t="s">
+        <v>14</v>
+      </c>
+      <c r="F176" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>176</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B177">
+        <v>4</v>
+      </c>
+      <c r="C177">
+        <v>95</v>
+      </c>
+      <c r="D177">
+        <v>1</v>
+      </c>
+      <c r="E177" t="s">
+        <v>15</v>
+      </c>
+      <c r="F177" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>177</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B178">
+        <v>4</v>
+      </c>
+      <c r="C178">
+        <v>100</v>
+      </c>
+      <c r="E178" t="s">
+        <v>15</v>
+      </c>
+      <c r="F178" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>178</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B179">
+        <v>4</v>
+      </c>
+      <c r="C179">
+        <v>85</v>
+      </c>
+      <c r="D179">
+        <v>1</v>
+      </c>
+      <c r="E179" t="s">
+        <v>14</v>
+      </c>
+      <c r="F179" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>180</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B181">
+        <v>2</v>
+      </c>
+      <c r="C181">
+        <v>85</v>
+      </c>
+      <c r="D181">
+        <v>1</v>
+      </c>
+      <c r="E181" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>181</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B182">
+        <v>2</v>
+      </c>
+      <c r="C182">
+        <v>100</v>
+      </c>
+      <c r="E182" t="s">
+        <v>15</v>
+      </c>
+      <c r="F182" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>182</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B183">
+        <v>2</v>
+      </c>
+      <c r="C183">
+        <v>90</v>
+      </c>
+      <c r="D183">
+        <v>3</v>
+      </c>
+      <c r="E183" t="s">
+        <v>15</v>
+      </c>
+      <c r="F183" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>183</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B184">
+        <v>3</v>
+      </c>
+      <c r="C184">
+        <v>100</v>
+      </c>
+      <c r="E184" t="s">
+        <v>15</v>
+      </c>
+      <c r="F184" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>184</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B185">
+        <v>4</v>
+      </c>
+      <c r="C185">
+        <v>98</v>
+      </c>
+      <c r="D185">
+        <v>1</v>
+      </c>
+      <c r="E185" t="s">
+        <v>14</v>
+      </c>
+      <c r="F185" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>185</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B186">
+        <v>4</v>
+      </c>
+      <c r="C186">
+        <v>100</v>
+      </c>
+      <c r="E186" t="s">
+        <v>15</v>
+      </c>
+      <c r="F186" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>186</v>
+      </c>
+      <c r="B187">
+        <v>4</v>
+      </c>
+      <c r="C187">
+        <v>90</v>
+      </c>
+      <c r="D187">
+        <v>1</v>
+      </c>
+      <c r="E187" t="s">
+        <v>14</v>
+      </c>
+      <c r="F187" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/data/cf_specimen_lithologies.xlsx
+++ b/data/cf_specimen_lithologies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamespierce/Desktop/Git_hub/Cut_Face/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A821069D-9443-8744-8D2D-17619A1D44C6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E557E252-023A-614B-909E-55121E4C12C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18620" yWindow="500" windowWidth="11180" windowHeight="16080" xr2:uid="{4EF45C58-FB85-3343-AD6C-A2D7EF7D4756}"/>
+    <workbookView xWindow="18700" yWindow="500" windowWidth="11180" windowHeight="16080" xr2:uid="{4EF45C58-FB85-3343-AD6C-A2D7EF7D4756}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="39">
   <si>
     <t>Specimen</t>
   </si>
@@ -504,8 +504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D17AF33-1FC7-7C41-8941-A5B480637DB5}">
   <dimension ref="A1:G187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="B117" sqref="B117"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="E104" sqref="E104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1038,82 +1038,175 @@
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>103</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B104">
+        <v>1</v>
+      </c>
+      <c r="C104">
+        <v>100</v>
+      </c>
+      <c r="E104" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>104</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B105">
+        <v>1</v>
+      </c>
+      <c r="C105">
+        <v>70</v>
+      </c>
+      <c r="D105">
+        <v>3</v>
+      </c>
+      <c r="E105" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>105</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B106">
+        <v>3</v>
+      </c>
+      <c r="C106">
+        <v>90</v>
+      </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
+      <c r="E106" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>106</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B107">
+        <v>1</v>
+      </c>
+      <c r="C107">
+        <v>90</v>
+      </c>
+      <c r="D107">
+        <v>2</v>
+      </c>
+      <c r="E107" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>107</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B108">
+        <v>2</v>
+      </c>
+      <c r="C108">
+        <v>70</v>
+      </c>
+      <c r="D108">
+        <v>1</v>
+      </c>
+      <c r="E108" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>108</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B109">
+        <v>1</v>
+      </c>
+      <c r="C109">
+        <v>60</v>
+      </c>
+      <c r="D109">
+        <v>2</v>
+      </c>
+      <c r="E109" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>109</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B110">
+        <v>1</v>
+      </c>
+      <c r="C110">
+        <v>55</v>
+      </c>
+      <c r="D110">
+        <v>2</v>
+      </c>
+      <c r="E110" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>110</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B111">
+        <v>1</v>
+      </c>
+      <c r="C111">
+        <v>65</v>
+      </c>
+      <c r="D111">
+        <v>2</v>
+      </c>
+      <c r="E111" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>111</v>
       </c>
@@ -1122,6 +1215,18 @@
       <c r="A113">
         <v>112</v>
       </c>
+      <c r="B113">
+        <v>1</v>
+      </c>
+      <c r="C113">
+        <v>70</v>
+      </c>
+      <c r="D113">
+        <v>3</v>
+      </c>
+      <c r="E113" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114">
@@ -1132,15 +1237,51 @@
       <c r="A115">
         <v>114</v>
       </c>
+      <c r="B115">
+        <v>1</v>
+      </c>
+      <c r="C115">
+        <v>85</v>
+      </c>
+      <c r="D115">
+        <v>2</v>
+      </c>
+      <c r="E115" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>115</v>
       </c>
+      <c r="B116">
+        <v>1</v>
+      </c>
+      <c r="C116">
+        <v>80</v>
+      </c>
+      <c r="D116">
+        <v>2</v>
+      </c>
+      <c r="E116" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>116</v>
+      </c>
+      <c r="B117">
+        <v>2</v>
+      </c>
+      <c r="C117">
+        <v>65</v>
+      </c>
+      <c r="D117">
+        <v>1</v>
+      </c>
+      <c r="E117" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">

--- a/data/cf_specimen_lithologies.xlsx
+++ b/data/cf_specimen_lithologies.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamespierce/Desktop/Git_hub/Cut_Face/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E557E252-023A-614B-909E-55121E4C12C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FCE29E7-ABCF-4D44-AD6F-272D96B54473}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18700" yWindow="500" windowWidth="11180" windowHeight="16080" xr2:uid="{4EF45C58-FB85-3343-AD6C-A2D7EF7D4756}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" xr2:uid="{4EF45C58-FB85-3343-AD6C-A2D7EF7D4756}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="46">
   <si>
     <t>Specimen</t>
   </si>
@@ -151,6 +151,27 @@
   </si>
   <si>
     <t>finely laminated</t>
+  </si>
+  <si>
+    <t>layererd sand and silt</t>
+  </si>
+  <si>
+    <t>graded silt to fine sand</t>
+  </si>
+  <si>
+    <t>beautitful</t>
+  </si>
+  <si>
+    <t>upper fine</t>
+  </si>
+  <si>
+    <t>possible mud crack filled with upper fine sand</t>
+  </si>
+  <si>
+    <t>poorly sorted, subangular</t>
+  </si>
+  <si>
+    <t>this sample DOES NOT EXIST, ie no data</t>
   </si>
 </sst>
 </file>
@@ -504,8 +525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D17AF33-1FC7-7C41-8941-A5B480637DB5}">
   <dimension ref="A1:G187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="E104" sqref="E104"/>
+    <sheetView tabSelected="1" zoomScale="50" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -546,6 +567,15 @@
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
       <c r="G2" t="s">
         <v>7</v>
       </c>
@@ -554,6 +584,15 @@
       <c r="A3">
         <v>2</v>
       </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>100</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
       <c r="G3" t="s">
         <v>8</v>
       </c>
@@ -561,6 +600,15 @@
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
       </c>
       <c r="G4" t="s">
         <v>9</v>
@@ -570,6 +618,15 @@
       <c r="A5">
         <v>4</v>
       </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>100</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
       <c r="G5" t="s">
         <v>10</v>
       </c>
@@ -578,6 +635,18 @@
       <c r="A6">
         <v>5</v>
       </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>95</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
       <c r="G6" t="s">
         <v>11</v>
       </c>
@@ -586,6 +655,18 @@
       <c r="A7">
         <v>6</v>
       </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>75</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
       <c r="G7" t="s">
         <v>12</v>
       </c>
@@ -594,6 +675,18 @@
       <c r="A8">
         <v>7</v>
       </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>90</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
       <c r="G8" t="s">
         <v>13</v>
       </c>
@@ -602,476 +695,1586 @@
       <c r="A9">
         <v>8</v>
       </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>100</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>70</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>80</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>95</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>85</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>90</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>90</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>100</v>
+      </c>
+      <c r="E16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>90</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>95</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>95</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>100</v>
+      </c>
+      <c r="E20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>100</v>
+      </c>
+      <c r="E21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>85</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>100</v>
+      </c>
+      <c r="E23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>90</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>100</v>
+      </c>
+      <c r="E25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>90</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>80</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>100</v>
+      </c>
+      <c r="E28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>95</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>90</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <v>95</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32">
+        <v>100</v>
+      </c>
+      <c r="E32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>60</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="E33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>85</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>90</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36">
+        <v>60</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <v>80</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>65</v>
+      </c>
+      <c r="D38">
+        <v>3</v>
+      </c>
+      <c r="E38" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>65</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>80</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="E40" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>90</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>100</v>
+      </c>
+      <c r="E42" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>100</v>
+      </c>
+      <c r="E43" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="C44">
+        <v>90</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>60</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>65</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>70</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>75</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>75</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>100</v>
+      </c>
+      <c r="E50" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>70</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52">
+        <v>70</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>100</v>
+      </c>
+      <c r="E53" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>70</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+      <c r="E54" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55">
+        <v>80</v>
+      </c>
+      <c r="D55">
+        <v>3</v>
+      </c>
+      <c r="E55" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B56">
+        <v>3</v>
+      </c>
+      <c r="C56">
+        <v>90</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B57">
+        <v>3</v>
+      </c>
+      <c r="C57">
+        <v>60</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57" t="s">
+        <v>15</v>
+      </c>
+      <c r="F57" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>60</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
+      <c r="E58" t="s">
+        <v>15</v>
+      </c>
+      <c r="F58" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="C59">
+        <v>65</v>
+      </c>
+      <c r="D59">
+        <v>3</v>
+      </c>
+      <c r="E59" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B60">
+        <v>3</v>
+      </c>
+      <c r="C60">
+        <v>65</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
+      <c r="E60" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B61">
+        <v>2</v>
+      </c>
+      <c r="C61">
+        <v>75</v>
+      </c>
+      <c r="D61">
+        <v>3</v>
+      </c>
+      <c r="E61" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B62">
+        <v>2</v>
+      </c>
+      <c r="C62">
+        <v>80</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B63">
+        <v>2</v>
+      </c>
+      <c r="C63">
+        <v>75</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B64">
+        <v>3</v>
+      </c>
+      <c r="C64">
+        <v>75</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B65">
+        <v>3</v>
+      </c>
+      <c r="C65">
+        <v>75</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B66">
+        <v>2</v>
+      </c>
+      <c r="C66">
+        <v>95</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B67">
+        <v>3</v>
+      </c>
+      <c r="C67">
+        <v>75</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B68">
+        <v>3</v>
+      </c>
+      <c r="C68">
+        <v>100</v>
+      </c>
+      <c r="E68" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B69">
+        <v>2</v>
+      </c>
+      <c r="C69">
+        <v>65</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B70">
+        <v>3</v>
+      </c>
+      <c r="C70">
+        <v>95</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B71">
+        <v>3</v>
+      </c>
+      <c r="C71">
+        <v>95</v>
+      </c>
+      <c r="D71">
+        <v>2</v>
+      </c>
+      <c r="E71" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B72">
+        <v>3</v>
+      </c>
+      <c r="C72">
+        <v>70</v>
+      </c>
+      <c r="D72">
+        <v>2</v>
+      </c>
+      <c r="E72" t="s">
+        <v>15</v>
+      </c>
+      <c r="F72" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B73">
+        <v>3</v>
+      </c>
+      <c r="C73">
+        <v>80</v>
+      </c>
+      <c r="D73">
+        <v>2</v>
+      </c>
+      <c r="E73" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B74">
+        <v>3</v>
+      </c>
+      <c r="C74">
+        <v>80</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B75">
+        <v>3</v>
+      </c>
+      <c r="C75">
+        <v>85</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75" t="s">
+        <v>15</v>
+      </c>
+      <c r="F75" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B76">
+        <v>3</v>
+      </c>
+      <c r="C76">
+        <v>70</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B77">
+        <v>3</v>
+      </c>
+      <c r="C77">
+        <v>80</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B78">
+        <v>3</v>
+      </c>
+      <c r="C78">
+        <v>75</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B79">
+        <v>3</v>
+      </c>
+      <c r="C79">
+        <v>65</v>
+      </c>
+      <c r="D79">
+        <v>2</v>
+      </c>
+      <c r="E79" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>79</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B80">
+        <v>3</v>
+      </c>
+      <c r="C80">
+        <v>70</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B81">
+        <v>3</v>
+      </c>
+      <c r="C81">
+        <v>60</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82">
+        <v>80</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B83">
+        <v>3</v>
+      </c>
+      <c r="C83">
+        <v>95</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>83</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B84">
+        <v>3</v>
+      </c>
+      <c r="C84">
+        <v>70</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+      <c r="E84" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B85">
+        <v>3</v>
+      </c>
+      <c r="C85">
+        <v>100</v>
+      </c>
+      <c r="E85" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>85</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B86">
+        <v>3</v>
+      </c>
+      <c r="C86">
+        <v>85</v>
+      </c>
+      <c r="D86">
+        <v>2</v>
+      </c>
+      <c r="E86" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B87">
+        <v>3</v>
+      </c>
+      <c r="C87">
+        <v>100</v>
+      </c>
+      <c r="E87" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>87</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B88">
+        <v>3</v>
+      </c>
+      <c r="C88">
+        <v>95</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="C89">
+        <v>60</v>
+      </c>
+      <c r="D89">
+        <v>3</v>
+      </c>
+      <c r="E89" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B90">
+        <v>3</v>
+      </c>
+      <c r="C90">
+        <v>100</v>
+      </c>
+      <c r="E90" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91">
+        <v>60</v>
+      </c>
+      <c r="D91">
+        <v>3</v>
+      </c>
+      <c r="E91" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>91</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B92">
+        <v>3</v>
+      </c>
+      <c r="C92">
+        <v>95</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="E92" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>92</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B93">
+        <v>2</v>
+      </c>
+      <c r="C93">
+        <v>80</v>
+      </c>
+      <c r="D93">
+        <v>3</v>
+      </c>
+      <c r="E93" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="C94">
+        <v>70</v>
+      </c>
+      <c r="D94">
+        <v>2</v>
+      </c>
+      <c r="E94" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>94</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B95">
+        <v>2</v>
+      </c>
+      <c r="C95">
+        <v>70</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="E95" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>95</v>
+      </c>
+      <c r="B96">
+        <v>3</v>
+      </c>
+      <c r="C96">
+        <v>95</v>
+      </c>
+      <c r="D96">
+        <v>2</v>
+      </c>
+      <c r="E96" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>96</v>
       </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+      <c r="C97">
+        <v>90</v>
+      </c>
+      <c r="D97">
+        <v>2</v>
+      </c>
+      <c r="E97" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>97</v>
       </c>
+      <c r="B98">
+        <v>1</v>
+      </c>
+      <c r="C98">
+        <v>95</v>
+      </c>
+      <c r="D98">
+        <v>2</v>
+      </c>
+      <c r="E98" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>98</v>
       </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+      <c r="C99">
+        <v>75</v>
+      </c>
+      <c r="D99">
+        <v>4</v>
+      </c>
+      <c r="E99" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>99</v>
       </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+      <c r="C100">
+        <v>100</v>
+      </c>
+      <c r="E100" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>100</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+      <c r="C101">
+        <v>70</v>
+      </c>
+      <c r="D101">
+        <v>3</v>
+      </c>
+      <c r="E101" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>101</v>
       </c>
+      <c r="B102">
+        <v>1</v>
+      </c>
+      <c r="C102">
+        <v>90</v>
+      </c>
+      <c r="D102">
+        <v>2</v>
+      </c>
+      <c r="E102" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>102</v>
       </c>
+      <c r="B103">
+        <v>1</v>
+      </c>
+      <c r="C103">
+        <v>100</v>
+      </c>
+      <c r="E103" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104">
@@ -1210,6 +2413,18 @@
       <c r="A112">
         <v>111</v>
       </c>
+      <c r="B112">
+        <v>1</v>
+      </c>
+      <c r="C112">
+        <v>70</v>
+      </c>
+      <c r="D112">
+        <v>3</v>
+      </c>
+      <c r="E112" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113">
@@ -1232,6 +2447,18 @@
       <c r="A114">
         <v>113</v>
       </c>
+      <c r="B114">
+        <v>2</v>
+      </c>
+      <c r="C114">
+        <v>80</v>
+      </c>
+      <c r="D114">
+        <v>1</v>
+      </c>
+      <c r="E114" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115">
@@ -1308,6 +2535,18 @@
       <c r="A119">
         <v>118</v>
       </c>
+      <c r="B119">
+        <v>1</v>
+      </c>
+      <c r="C119">
+        <v>75</v>
+      </c>
+      <c r="D119">
+        <v>2</v>
+      </c>
+      <c r="E119" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120">
@@ -1398,6 +2637,15 @@
       <c r="A125">
         <v>124</v>
       </c>
+      <c r="B125">
+        <v>1</v>
+      </c>
+      <c r="C125">
+        <v>100</v>
+      </c>
+      <c r="E125" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126">
@@ -1839,6 +3087,18 @@
       <c r="A152">
         <v>151</v>
       </c>
+      <c r="B152">
+        <v>1</v>
+      </c>
+      <c r="C152">
+        <v>60</v>
+      </c>
+      <c r="D152">
+        <v>2</v>
+      </c>
+      <c r="E152" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153">
@@ -2134,6 +3394,18 @@
       <c r="A169">
         <v>168</v>
       </c>
+      <c r="B169">
+        <v>2</v>
+      </c>
+      <c r="C169">
+        <v>70</v>
+      </c>
+      <c r="D169">
+        <v>1</v>
+      </c>
+      <c r="E169" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170">
@@ -2173,6 +3445,9 @@
       <c r="A172">
         <v>171</v>
       </c>
+      <c r="F172" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173">
@@ -2198,6 +3473,18 @@
       <c r="A174">
         <v>173</v>
       </c>
+      <c r="B174">
+        <v>3</v>
+      </c>
+      <c r="C174">
+        <v>75</v>
+      </c>
+      <c r="D174">
+        <v>1</v>
+      </c>
+      <c r="E174" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175">
@@ -2294,6 +3581,15 @@
       <c r="A180">
         <v>179</v>
       </c>
+      <c r="B180">
+        <v>3</v>
+      </c>
+      <c r="C180">
+        <v>100</v>
+      </c>
+      <c r="E180" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181">
@@ -2374,7 +3670,7 @@
         <v>4</v>
       </c>
       <c r="C185">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D185">
         <v>1</v>
